--- a/public/template/receipt_typeB_template.xlsx
+++ b/public/template/receipt_typeB_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5559F-8F83-4096-ACBD-89DC62A4823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EFC711-E074-46CE-9E7A-44E41DDA55C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
@@ -150,11 +150,11 @@
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0\-_ ;&quot;¥&quot;\-#,##0\-_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;消費税( &quot;##&quot; % )&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;消費税(&quot;##&quot; %)&quot;"/>
-    <numFmt numFmtId="182" formatCode="&quot;(&quot;##&quot;%)&quot;"/>
-    <numFmt numFmtId="184" formatCode="[$-411]gg\ ee\ &quot;年&quot;\ mm\ &quot;月&quot;\ dd\ &quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;消費税( &quot;##&quot; % )&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;消費税(&quot;##&quot; %)&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;(&quot;##&quot;%)&quot;"/>
+    <numFmt numFmtId="182" formatCode="[$-411]gg\ ee\ &quot;年&quot;\ mm\ &quot;月&quot;\ dd\ &quot;日&quot;;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -439,10 +439,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -516,7 +516,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -562,68 +562,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,9 +1045,7 @@
   </sheetPr>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="37" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1070,22 +1068,22 @@
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -1093,20 +1091,20 @@
     <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1150,8 +1148,8 @@
       <c r="O4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
@@ -1173,23 +1171,23 @@
       <c r="O5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="70" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="16"/>
@@ -1204,15 +1202,15 @@
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="51"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1294,16 +1292,16 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="52" t="e">
+      <c r="H11" s="61">
         <f>G26</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
       <c r="O11" s="25"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1313,20 +1311,20 @@
     <row r="12" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="25"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1336,18 +1334,18 @@
     <row r="13" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="25"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1362,13 +1360,13 @@
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
       <c r="O14" s="25"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1556,8 +1554,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="37"/>
       <c r="J23" s="7"/>
       <c r="K23" s="40"/>
@@ -1573,20 +1571,17 @@
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="37"/>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="7"/>
       <c r="K24" s="32"/>
       <c r="L24" s="1"/>
@@ -1601,20 +1596,17 @@
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69">
+      <c r="D25" s="58"/>
+      <c r="E25" s="59">
         <v>10</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="63" t="e">
-        <f>INT(G24*E25/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="7"/>
       <c r="K25" s="5"/>
       <c r="L25" s="1"/>
@@ -1629,20 +1621,17 @@
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63" t="e">
-        <f>G24+G25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="7"/>
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
@@ -1801,6 +1790,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H11:N14"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="C1:P2"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
@@ -1811,13 +1807,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:I25"/>
-    <mergeCell ref="H11:N14"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="C1:P2"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/template/receipt_typeB_template.xlsx
+++ b/public/template/receipt_typeB_template.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eebec2807525793a/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EFC711-E074-46CE-9E7A-44E41DDA55C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B85CC8C-1C57-4084-ABAE-537629CFA26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F83362A1-8ACF-47AA-B854-3D22041CB80D}"/>
   </bookViews>
   <sheets>
-    <sheet name="領収書 B6" sheetId="3" r:id="rId1"/>
+    <sheet name="領収書 B6" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'領収書 B6'!$A$1:$S$28</definedName>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
+    <t>領　収　書</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行日：</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -49,6 +71,36 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>金額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (税込)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>但し</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の金額、正に領収いたしました。</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -85,59 +137,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発行日：</t>
+    <t>代金として</t>
     <rPh sb="0" eb="2">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>領　収　書</t>
-    <rPh sb="0" eb="1">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>金額</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> (税込)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>但し</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○○代金として</t>
-    <rPh sb="2" eb="4">
       <t>ダイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上記の金額、正に領収いたしました。</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -149,12 +151,12 @@
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0\-_ ;&quot;¥&quot;\-#,##0\-_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;消費税( &quot;##&quot; % )&quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot;消費税(&quot;##&quot; %)&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;(&quot;##&quot;%)&quot;"/>
-    <numFmt numFmtId="182" formatCode="[$-411]gg\ ee\ &quot;年&quot;\ mm\ &quot;月&quot;\ dd\ &quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="[$-411]gg\ ee\ &quot;年&quot;\ mm\ &quot;月&quot;\ dd\ &quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0\-_ ;&quot;¥&quot;\-#,##0\-_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;消費税( &quot;##&quot; % )&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;消費税(&quot;##&quot; %)&quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;(&quot;##&quot;%)&quot;"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -171,6 +173,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="38"/>
       <color theme="1"/>
       <name val="メイリオ"/>
@@ -178,7 +187,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -199,10 +208,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -210,42 +219,6 @@
       <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -283,6 +256,35 @@
       <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -324,19 +326,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -387,6 +389,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0"/>
       </left>
       <right/>
@@ -398,19 +413,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -425,205 +427,205 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="5" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="5" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +664,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B816915-4397-4314-9709-F7587D1047F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43797806-1CBF-4136-942B-0CE0E953297C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -744,9 +746,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -754,39 +756,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -838,7 +840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -890,7 +892,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -949,13 +951,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -964,6 +959,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1028,18 +1030,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCF49AB-55B7-4700-B6AF-C4E6026CBD28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A30C1-2834-4DF5-BF8E-0CC2B896ACF4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1067,66 +1089,66 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="65" t="s">
-        <v>8</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="10"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="2"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="10"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
@@ -1143,13 +1165,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12" t="s">
-        <v>0</v>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6" t="s">
+        <v>1</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
@@ -1166,31 +1188,31 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14" t="s">
-        <v>7</v>
+      <c r="M5" s="5"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="70" t="s">
-        <v>1</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13" t="s">
+        <v>3</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1202,16 +1224,16 @@
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="4"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1227,12 +1249,12 @@
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1244,16 +1266,16 @@
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1266,15 +1288,15 @@
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1287,22 +1309,22 @@
     <row r="11" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="61">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27">
         <f>G26</f>
         <v>0</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1311,21 +1333,21 @@
     <row r="12" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="64" t="s">
-        <v>9</v>
+      <c r="C12" s="29" t="s">
+        <v>4</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="25"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1334,19 +1356,19 @@
     <row r="13" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="25"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1354,20 +1376,20 @@
     </row>
     <row r="14" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1396,19 +1418,19 @@
     </row>
     <row r="16" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1417,23 +1439,23 @@
     </row>
     <row r="17" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30" t="s">
-        <v>10</v>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
+        <v>5</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>11</v>
+      <c r="E17" s="38" t="s">
+        <v>12</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1442,39 +1464,39 @@
     </row>
     <row r="18" spans="1:19" ht="3.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
-        <v>12</v>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46" t="s">
+        <v>6</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1486,43 +1508,43 @@
     </row>
     <row r="20" spans="1:19" ht="3.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="3.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
@@ -1549,16 +1571,16 @@
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="37"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="40"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1570,20 +1592,20 @@
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="50" t="s">
-        <v>2</v>
+      <c r="B24" s="45"/>
+      <c r="C24" s="51" t="s">
+        <v>7</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51" t="s">
-        <v>3</v>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52" t="s">
+        <v>8</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="32"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1595,51 +1617,51 @@
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="57" t="s">
-        <v>4</v>
+      <c r="B25" s="45"/>
+      <c r="C25" s="56" t="s">
+        <v>9</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59">
+      <c r="D25" s="57"/>
+      <c r="E25" s="58">
         <v>10</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="9"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="61"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="50" t="s">
-        <v>5</v>
+      <c r="B26" s="39"/>
+      <c r="C26" s="51" t="s">
+        <v>10</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51" t="s">
-        <v>6</v>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52" t="s">
+        <v>11</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="9"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
@@ -1686,43 +1708,43 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q29" s="42"/>
+      <c r="Q29" s="63"/>
     </row>
     <row r="30" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q32" s="43"/>
+      <c r="Q32" s="64"/>
     </row>
     <row r="33" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="L34" s="45"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="L34" s="66"/>
     </row>
     <row r="35" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I38" s="46"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="41" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
     </row>
     <row r="42" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H42" s="49"/>
+      <c r="H42" s="70"/>
     </row>
     <row r="43" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
@@ -1790,13 +1812,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H11:N14"/>
-    <mergeCell ref="C12:G13"/>
-    <mergeCell ref="C1:P2"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
@@ -1807,6 +1822,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C1:P2"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H11:N14"/>
+    <mergeCell ref="C12:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
